--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3073647.670749104</v>
+        <v>3071760.0892327</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>277.6787850649187</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5756458870621</v>
+        <v>67.250255041446</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.67003244799091</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.4866385018644</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.8783469293136</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.6652719985048</v>
+        <v>128.7835007017903</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>183.2480859481356</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.006840360306</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056517</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359236</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916436</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>43.72170015350653</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>33.35146980185907</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>8.517127121913042</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>22.14609241444461</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571493</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523574</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>898.8784838925781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>898.8784838925781</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>487.8925791029705</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,10 +4358,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4373,7 +4373,7 @@
         <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T4" t="n">
-        <v>389.0166762901907</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>389.0166762901907</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2661.118755212171</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2484.941267526341</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2484.941267526341</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2484.941267526341</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2153.87838018277</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2153.87838018277</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.41262192169</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750361</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750361</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1002.822080319991</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>748.1375921141046</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>748.1375921141046</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X13" t="n">
-        <v>748.1375921141046</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3450129705744</v>
+        <v>164.7973538578534</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,7 +5300,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5309,13 +5309,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149466</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.2492756170066</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T16" t="n">
         <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765189</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V16" t="n">
-        <v>531.397718270632</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336714</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,49 +5510,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5653,34 +5653,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,25 +5695,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028587</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,22 +5747,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255037</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6230,22 +6230,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613456</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>130.905444795497</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>130.905444795497</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542185</v>
+        <v>439.5324299542166</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542185</v>
+        <v>326.3571123076804</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>232.0013381767154</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>565.4200295030856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6874,19 +6874,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -7029,10 +7029,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,55 +7801,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525395</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949802</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711639</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>85.30006332127743</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863223</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>18.73797368291383</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>112.9275204083454</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9892664504418</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628503</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>185.2331835502357</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>40.67825230693384</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>242.5156522450708</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615185</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.89508926774225</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.07169897992965</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780090.9989214451</v>
+        <v>780090.998921445</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.4955803338</v>
+        <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524312</v>
+        <v>650915.4197524313</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,16 +26424,16 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007424</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007495</v>
+        <v>7916.731656007453</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
@@ -26442,22 +26442,22 @@
         <v>7916.731656007492</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024481</v>
+        <v>-163910.5901024487</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120962</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120964</v>
+        <v>426057.2891120963</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987136034</v>
+        <v>484.9423727414537</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756098</v>
+        <v>525644.9788496373</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756098</v>
+        <v>525644.9788496377</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756099</v>
+        <v>525644.9788496376</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.43797561</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830167</v>
+        <v>349221.7596570448</v>
       </c>
       <c r="K6" t="n">
-        <v>484043.2517491587</v>
+        <v>484024.7580112246</v>
       </c>
       <c r="L6" t="n">
-        <v>518439.8843732064</v>
+        <v>518439.8843732061</v>
       </c>
       <c r="M6" t="n">
-        <v>393981.7759402358</v>
+        <v>393981.7759402357</v>
       </c>
       <c r="N6" t="n">
-        <v>528782.7911740728</v>
+        <v>528782.7911740738</v>
       </c>
       <c r="O6" t="n">
-        <v>528782.7911740736</v>
+        <v>528782.7911740737</v>
       </c>
       <c r="P6" t="n">
-        <v>484620.1858712281</v>
+        <v>484620.1858712279</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,37 +26735,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518688</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>136.1053849558763</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>101.4594595710222</v>
+        <v>157.7848504166383</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>18.8083701268208</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.7543302155486</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>91.85549473416694</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.91938135359001</v>
+        <v>89.80115265030449</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.316568047830074e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.62609764791297e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>80.77020197440476</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>702.5357390731093</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>598.833559628141</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>395.7244403717438</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>212.3531108713965</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37397,13 +37397,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>311.7175659683194</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
